--- a/downloads/2022-urgentemedicale.xlsx
+++ b/downloads/2022-urgentemedicale.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciprian.zetu\Desktop\ANA\dataGOV\2024\ORDT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7636963B-CEFB-46D5-B175-5F0682283A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Urgente" sheetId="3" r:id="rId1"/>
@@ -109,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,18 +184,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -227,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,7 +264,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -301,7 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,10 +332,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,435 +507,439 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>714</v>
-      </c>
-      <c r="C5" s="4">
-        <v>360</v>
-      </c>
-      <c r="D5" s="4">
-        <v>193</v>
-      </c>
-      <c r="E5" s="4">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>497</v>
+      </c>
+      <c r="C5" s="5">
+        <v>171</v>
+      </c>
+      <c r="D5" s="5">
+        <v>107</v>
+      </c>
+      <c r="E5" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
-        <v>156</v>
-      </c>
-      <c r="C6" s="4">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>111</v>
+      </c>
+      <c r="C6" s="5">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5">
+        <v>48</v>
+      </c>
+      <c r="E6" s="5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4">
-        <v>494</v>
-      </c>
-      <c r="C10" s="4">
-        <v>220</v>
-      </c>
-      <c r="D10" s="4">
-        <v>76</v>
-      </c>
-      <c r="E10" s="4">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="5">
+        <v>332</v>
+      </c>
+      <c r="C10" s="5">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5">
+        <v>45</v>
+      </c>
+      <c r="E10" s="5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
-        <v>301</v>
-      </c>
-      <c r="C11" s="4">
-        <v>166</v>
-      </c>
-      <c r="D11" s="4">
-        <v>88</v>
-      </c>
-      <c r="E11" s="4">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="5">
+        <v>209</v>
+      </c>
+      <c r="C11" s="5">
+        <v>84</v>
+      </c>
+      <c r="D11" s="5">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4">
-        <v>75</v>
-      </c>
-      <c r="D12" s="4">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>67</v>
+      </c>
+      <c r="C12" s="5">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5">
+        <v>51</v>
+      </c>
+      <c r="E12" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4">
-        <v>870</v>
-      </c>
-      <c r="C16" s="7">
-        <v>451</v>
-      </c>
-      <c r="D16" s="4">
-        <v>128</v>
-      </c>
-      <c r="E16" s="4">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="5">
+        <v>608</v>
+      </c>
+      <c r="C16" s="10">
+        <v>224</v>
+      </c>
+      <c r="D16" s="5">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7</v>
-      </c>
-      <c r="D17" s="4">
-        <v>27</v>
-      </c>
-      <c r="E17" s="4">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
-        <v>95</v>
-      </c>
-      <c r="E18" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>47</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4">
-        <v>493</v>
-      </c>
-      <c r="C22" s="4">
-        <v>175</v>
-      </c>
-      <c r="D22" s="4">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="B22" s="5">
+        <v>344</v>
+      </c>
+      <c r="C22" s="5">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5">
+        <v>58</v>
+      </c>
+      <c r="E22" s="5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4">
-        <v>377</v>
-      </c>
-      <c r="C23" s="4">
-        <v>286</v>
-      </c>
-      <c r="D23" s="4">
-        <v>156</v>
-      </c>
-      <c r="E23" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="5">
+        <v>264</v>
+      </c>
+      <c r="C23" s="5">
+        <v>164</v>
+      </c>
+      <c r="D23" s="5">
+        <v>97</v>
+      </c>
+      <c r="E23" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4">
-        <v>449</v>
-      </c>
-      <c r="C27" s="4">
-        <v>240</v>
-      </c>
-      <c r="D27" s="6">
-        <v>64</v>
-      </c>
-      <c r="E27" s="4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="B27" s="5">
+        <v>239</v>
+      </c>
+      <c r="C27" s="5">
+        <v>109</v>
+      </c>
+      <c r="D27" s="8">
+        <v>47</v>
+      </c>
+      <c r="E27" s="5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="4">
-        <v>83</v>
-      </c>
-      <c r="C28" s="4">
-        <v>57</v>
-      </c>
-      <c r="D28" s="6">
-        <v>11</v>
-      </c>
-      <c r="E28" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="B28" s="5">
+        <v>101</v>
+      </c>
+      <c r="C28" s="5">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4">
-        <v>57</v>
-      </c>
-      <c r="C29" s="4">
-        <v>44</v>
-      </c>
-      <c r="D29" s="6">
-        <v>120</v>
-      </c>
-      <c r="E29" s="4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B29" s="5">
+        <v>63</v>
+      </c>
+      <c r="C29" s="5">
+        <v>23</v>
+      </c>
+      <c r="D29" s="8">
+        <v>39</v>
+      </c>
+      <c r="E29" s="5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
+        <v>16</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10</v>
+      </c>
+      <c r="D30" s="8">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5">
+        <v>137</v>
+      </c>
+      <c r="C31" s="5">
+        <v>38</v>
+      </c>
+      <c r="D31" s="8">
+        <v>15</v>
+      </c>
+      <c r="E31" s="5">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4">
-        <v>16</v>
-      </c>
-      <c r="D30" s="6">
-        <v>23</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75">
+      <c r="A33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5">
+        <v>52</v>
+      </c>
+      <c r="C34" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4">
-        <v>142</v>
-      </c>
-      <c r="C31" s="4">
-        <v>68</v>
-      </c>
-      <c r="D31" s="6">
-        <v>19</v>
-      </c>
-      <c r="E31" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="4">
-        <v>3</v>
-      </c>
-      <c r="C32" s="4">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6">
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
         <v>6</v>
       </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="4">
-        <v>124</v>
-      </c>
-      <c r="C34" s="4">
-        <v>33</v>
-      </c>
-      <c r="D34" s="6">
-        <v>7</v>
-      </c>
-      <c r="E34" s="4">
-        <v>118</v>
-      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>